--- a/data/income_statement/2digits/size/30_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/30_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>30-Manufacture of other transport equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>30-Manufacture of other transport equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>722795.1380199998</v>
+        <v>882256.8478599999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>608101.84484</v>
+        <v>778697.5880600001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>563242.6964</v>
+        <v>794601.5321200001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>559057.43415</v>
+        <v>712573.4166</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>859526.6368999999</v>
+        <v>1045292.84918</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>771543.62723</v>
+        <v>906926.87443</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>608383.08528</v>
+        <v>856800.22587</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>942925.9645</v>
+        <v>1300436.4548</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1079576.56107</v>
+        <v>1535201.70022</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2428565.25416</v>
+        <v>3385995.96503</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2514801.03938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3457486.2778</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4798047.068</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>398844.97499</v>
+        <v>492590.05666</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>366610.98224</v>
+        <v>458157.988</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>320602.81303</v>
+        <v>420016.41294</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>390161.75841</v>
+        <v>458525.89492</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>456448.1596199999</v>
+        <v>568609.013</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>458372.79055</v>
+        <v>514765.33152</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>433955.74509</v>
+        <v>546277.97759</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>686029.98846</v>
+        <v>851090.9478199999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>837163.20345</v>
+        <v>1059592.0207</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1295158.66233</v>
+        <v>1803041.25136</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1469181.34385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1893566.72546</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2783456.92</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>315988.87393</v>
+        <v>376464.69122</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>233587.66745</v>
+        <v>315529.8799</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>234698.87054</v>
+        <v>348458.66604</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>158649.62469</v>
+        <v>235262.1525</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>395793.41447</v>
+        <v>469858.70455</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>301553.76201</v>
+        <v>377486.36796</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>168020.12979</v>
+        <v>296973.44876</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>243551.21291</v>
+        <v>418811.1037</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>222444.15565</v>
+        <v>415417.001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1085919.47614</v>
+        <v>1512360.2708</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>986372.1426700001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1421387.77986</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1938164.446</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7961.289100000001</v>
+        <v>13202.09998</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7903.19515</v>
+        <v>5009.72016</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>7941.012829999999</v>
+        <v>26126.45314</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>10246.05105</v>
+        <v>18785.36918</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7285.062809999999</v>
+        <v>6825.131630000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>11617.07467</v>
+        <v>14675.17495</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6407.210399999999</v>
+        <v>13548.79952</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>13344.76313</v>
+        <v>30534.40328</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>19969.20197</v>
+        <v>60192.67851999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>47487.11568999999</v>
+        <v>70594.44287</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>59247.55286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>142531.77248</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>76425.702</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>11172.63231</v>
+        <v>13264.28211</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6258.69002</v>
+        <v>7399.930310000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>7317.372579999999</v>
+        <v>12928.63271</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>10997.5107</v>
+        <v>11973.92528</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>18603.10774</v>
+        <v>21447.41976</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11917.02036</v>
+        <v>16392.3476</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8578.904299999998</v>
+        <v>11317.00011</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>21692.32348</v>
+        <v>25102.70544</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>33419.80757</v>
+        <v>56036.46395</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>50088.33281</v>
+        <v>96398.77009999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>54816.31068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>65253.06982</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>81985.614</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2325.60801</v>
+        <v>4389.42452</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3988.01042</v>
+        <v>4569.345969999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4516.68979</v>
+        <v>9466.680550000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9085.51339</v>
+        <v>10030.48008</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5479.09882</v>
+        <v>8132.711859999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8806.22604</v>
+        <v>10163.6545</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4651.22369</v>
+        <v>6937.562720000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>7619.973400000001</v>
+        <v>10730.52561</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9897.47818</v>
+        <v>32345.61264</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>20119.60315</v>
+        <v>57397.10737000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>24054.32031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>32245.38649</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>24059.942</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>8621.976000000001</v>
+        <v>8671.295749999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2000.58552</v>
+        <v>1963.01664</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1498.06563</v>
+        <v>1450.45067</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>1340.68433</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12785.8867</v>
+        <v>13012.7757</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2498.16689</v>
+        <v>5616.23517</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3780.90509</v>
+        <v>4232.66187</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12065.82267</v>
+        <v>12425.22626</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>23113.4797</v>
+        <v>23213.63821</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>25611.6728</v>
+        <v>34667.75682</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>26308.60046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>27305.24493</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>43535.033</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>225.0483</v>
+        <v>203.56184</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>270.09408</v>
+        <v>867.5677000000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1302.61716</v>
+        <v>2011.50149</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>571.3129799999999</v>
+        <v>602.76087</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>338.12222</v>
+        <v>301.9322</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>612.6274299999999</v>
+        <v>612.4579299999999</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>146.77552</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2006.52741</v>
+        <v>1946.95357</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>408.84969</v>
+        <v>477.2131</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4357.05686</v>
+        <v>4333.90591</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4453.38991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5702.4384</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>14390.639</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>711622.5057100001</v>
+        <v>868992.56575</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>601843.1548200001</v>
+        <v>771297.65775</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>555925.3238199999</v>
+        <v>781672.89941</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>548059.92345</v>
+        <v>700599.4913199999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>840923.5291599998</v>
+        <v>1023845.42942</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>759626.60687</v>
+        <v>890534.5268299999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>599804.1809800001</v>
+        <v>845483.2257599999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>921233.64102</v>
+        <v>1275333.74936</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1046156.7535</v>
+        <v>1479165.23627</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2378476.92135</v>
+        <v>3289597.19493</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2459984.7287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3392233.20798</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4716061.454</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>589942.37275</v>
+        <v>735696.64902</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>517942.6881500001</v>
+        <v>662846.46059</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>444792.59914</v>
+        <v>636384.5579400001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>441165.6887700001</v>
+        <v>561381.85218</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>709178.8991700001</v>
+        <v>863362.66137</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>643207.7320999999</v>
+        <v>759864.2716399999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>507247.39656</v>
+        <v>698208.4116900001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>765117.39294</v>
+        <v>1074914.81756</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>813689.4777</v>
+        <v>1170823.16009</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1969058.08792</v>
+        <v>2648594.65495</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1951701.84303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2680533.84467</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3833194.186</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>367962.0615900001</v>
+        <v>423419.50972</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>280133.17558</v>
+        <v>329657.6626</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>289854.63856</v>
+        <v>374265.55616</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>312445.41148</v>
+        <v>373983.45172</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>494524.27718</v>
+        <v>577969.71162</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>451602.98017</v>
+        <v>537216.90935</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>375566.67012</v>
+        <v>520324.75249</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>507069.50717</v>
+        <v>684699.46652</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>607134.89114</v>
+        <v>804865.1413400001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1234456.16644</v>
+        <v>1629079.902</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1248204.11725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1575651.58372</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2391243.88</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>83035.71521000001</v>
+        <v>104521.11147</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>80905.39293</v>
+        <v>104652.11796</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>46265.35157999999</v>
+        <v>63163.37029000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>52262.30744999999</v>
+        <v>66137.09838</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>123376.26353</v>
+        <v>128685.00088</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>97159.81851</v>
+        <v>102428.91046</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>40819.88468</v>
+        <v>54895.06183000001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>142445.69246</v>
+        <v>163180.74265</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>73435.48997</v>
+        <v>147407.5413</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>177314.63479</v>
+        <v>252913.21724</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>299288.53541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>426932.25579</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>459417.321</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>136566.79065</v>
+        <v>205133.03526</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>153271.46247</v>
+        <v>225992.11578</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>106685.47373</v>
+        <v>197474.62</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>73060.77591000001</v>
+        <v>117600.25263</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>88012.23431</v>
+        <v>153822.40696</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>89427.39135000001</v>
+        <v>116576.45429</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>86585.48492000002</v>
+        <v>116838.56642</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>109191.18897</v>
+        <v>222183.5464</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>130108.68574</v>
+        <v>191815.2733</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>552832.1712400002</v>
+        <v>741152.3145</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>396410.36625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>636501.0785400001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>845017.365</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2377.8053</v>
+        <v>2622.99257</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3632.65717</v>
+        <v>2544.56425</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1987.13527</v>
+        <v>1481.01149</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3397.19393</v>
+        <v>3661.04945</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3266.12415</v>
+        <v>2885.54191</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5017.54207</v>
+        <v>3641.99754</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4275.356839999999</v>
+        <v>6150.03095</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6411.00434</v>
+        <v>4851.06199</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3010.41085</v>
+        <v>26735.20415</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4455.115449999999</v>
+        <v>25449.22121</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>7798.82412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>41448.92662</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>137515.62</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>121680.13296</v>
+        <v>133295.91673</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>83900.46667000001</v>
+        <v>108451.19716</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>111132.72468</v>
+        <v>145288.34147</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>106894.23468</v>
+        <v>139217.63914</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>131744.62999</v>
+        <v>160482.76805</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>116418.87477</v>
+        <v>130670.25519</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>92556.78442</v>
+        <v>147274.81407</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>156116.24808</v>
+        <v>200418.9318</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>232467.2758</v>
+        <v>308342.07618</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>409418.8334300001</v>
+        <v>641002.53998</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>508282.88567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>711699.36331</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>882867.268</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>71586.33395</v>
+        <v>107350.2301</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>73364.55407000001</v>
+        <v>89231.84164</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>78812.58242999999</v>
+        <v>106378.92766</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>75847.01557999999</v>
+        <v>91597.71489</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>109042.1473</v>
+        <v>133625.98378</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>98398.94551999999</v>
+        <v>143689.95869</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>85254.33802</v>
+        <v>136316.62581</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>112421.73043</v>
+        <v>201624.04867</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>146993.90727</v>
+        <v>216122.67172</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>234717.59133</v>
+        <v>322340.18868</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>243910.90463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>381827.0355400001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>390984.869</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2216.28629</v>
+        <v>2733.0694</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1774.67003</v>
+        <v>1783.33695</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2026.70142</v>
+        <v>3817.51495</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>22.51093</v>
+        <v>1768.55887</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>85.71858</v>
+        <v>2249.82171</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3614.06798</v>
+        <v>5651.44079</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2572.59054</v>
+        <v>5730.80147</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2697.4863</v>
+        <v>7377.13541</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2747.65718</v>
+        <v>10869.6598</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1956.72616</v>
+        <v>11848.63919</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4200.55935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>7715.893959999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>7553.979</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>15563.72615</v>
+        <v>22578.48035</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>15701.07916</v>
+        <v>15304.8741</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>15671.3579</v>
+        <v>22932.54193</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>19218.79423</v>
+        <v>23309.84042</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>20777.15964</v>
+        <v>23951.36165</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>17393.60223</v>
+        <v>27119.83823</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>19665.05074</v>
+        <v>29517.62504</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>27231.77689</v>
+        <v>33838.87628</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>31927.13972</v>
+        <v>59479.4654</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>60768.20112999999</v>
+        <v>92185.29609999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>62493.34020999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>90063.40375</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>92059.503</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>53806.32150999999</v>
+        <v>82038.68035</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>55888.80488</v>
+        <v>72143.63059</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>61114.52311</v>
+        <v>79628.87077999998</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>56605.71042</v>
+        <v>66519.31559999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>88179.26908</v>
+        <v>107424.80042</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>77391.27531</v>
+        <v>110918.67967</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>63016.69673999999</v>
+        <v>101068.1993</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>82492.46724000001</v>
+        <v>160408.03698</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>112319.11037</v>
+        <v>145773.54652</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>171992.66404</v>
+        <v>218306.25339</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>177217.00507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>284047.73783</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>291371.387</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>50093.79901</v>
+        <v>25945.68663</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>10535.9126</v>
+        <v>19219.35552</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>32320.14225</v>
+        <v>38909.41381000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>31047.2191</v>
+        <v>47619.92425</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>22702.48269</v>
+        <v>26856.78427</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>18019.92925</v>
+        <v>-13019.7035</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7302.446400000001</v>
+        <v>10958.18826</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>43694.51765</v>
+        <v>-1205.116869999996</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>85473.36853000001</v>
+        <v>92219.40445999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>174701.2421</v>
+        <v>318662.3513</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>264371.98104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>329872.32777</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>491882.399</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>43236.42004</v>
+        <v>73553.05736000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>56739.88127000001</v>
+        <v>103013.58934</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>63519.92758999999</v>
+        <v>113957.70328</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>31098.54303</v>
+        <v>65470.85901</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>79299.66507999999</v>
+        <v>88079.11745000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>51365.44933</v>
+        <v>113630.11417</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>60659.03624</v>
+        <v>196054.82077</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>59317.57949</v>
+        <v>229967.3847</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>60512.38776999999</v>
+        <v>296137.13776</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>609247.0331799999</v>
+        <v>1359546.58883</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>192569.96656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>593999.83959</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>985622.487</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>181.20644</v>
+        <v>1241.58555</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>62.13517</v>
+        <v>11.37928</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>241.76136</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1735.58116</v>
+        <v>1671.16787</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1987.18351</v>
+        <v>600.688</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1247.8275</v>
+        <v>246.946</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>549.8686</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>469.42133</v>
+        <v>79296.10737</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>833.51549</v>
+        <v>56865.43807</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1681.696</v>
+        <v>3259.25119</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1614.423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4994.370339999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>12000.679</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1143.6296</v>
@@ -1840,65 +1856,75 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2687.464340000001</v>
+        <v>5513.603480000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2685.11055</v>
+        <v>5288.56235</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4301.634670000001</v>
+        <v>12199.74947</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5524.69686</v>
+        <v>10331.16733</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3396.84873</v>
+        <v>4168.61849</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4616.291310000001</v>
+        <v>5029.96634</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3852.5175</v>
+        <v>2897.33183</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>5957.05036</v>
+        <v>22849.27069</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6942.426100000001</v>
+        <v>14816.9419</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>23647.78754</v>
+        <v>51786.24778</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>14917.96053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>35833.71283</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>36447.914</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>44.22855000000001</v>
+        <v>197.78784</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4.25335</v>
+        <v>58.40534</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>135.60012</v>
+        <v>6.29239</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>0.5</v>
+        <v>1.02533</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0</v>
@@ -1910,175 +1936,200 @@
         <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>5.07802</v>
+        <v>1.68819</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>17416.45996</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7764.539690000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>8468.283700000002</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>489.837</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>229.29099</v>
+        <v>1110.9454</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1116.83874</v>
+        <v>493.5101</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>259.46528</v>
+        <v>287.7732099999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>170.83729</v>
+        <v>1211.27134</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1415.51809</v>
+        <v>1685.07935</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>398.65178</v>
+        <v>1250.86284</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>271.03435</v>
+        <v>379.45323</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>562.54743</v>
+        <v>490.13211</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>502.69998</v>
+        <v>1150.05527</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>201.48506</v>
+        <v>757.6083599999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2476.08082</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2556.63319</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>295.613</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>35.60841</v>
+        <v>37.51452</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>712.0413199999999</v>
+        <v>681.8902999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>29.33173</v>
+        <v>46.75230999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>212.90785</v>
+        <v>8.382379999999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>10.25009</v>
+        <v>12.6546</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>442.24468</v>
+        <v>3.4225</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1805.30693</v>
+        <v>0.08391</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>943.86942</v>
+        <v>21.26586</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>26.60554</v>
+        <v>245.79187</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>31.93816</v>
+        <v>64.35298</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>19.99558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3841.37799</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>802.6319999999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>34166.43212</v>
+        <v>62314.41972999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>35904.21179</v>
+        <v>90100.42056</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>42035.35993999999</v>
+        <v>95244.97954</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>22138.68176</v>
+        <v>50795.82196</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>70680.14241999999</v>
+        <v>79498.51618000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>38408.01972</v>
+        <v>100339.2381</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>52320.67152</v>
+        <v>177676.58497</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>48018.33627</v>
+        <v>124007.22696</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>47002.25953</v>
+        <v>215600.71469</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>554103.72296</v>
+        <v>1240473.42991</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>151117.59494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>471195.08803</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>906158.012</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.4625</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>894.73622</v>
+        <v>464.06516</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>447.03948</v>
+        <v>27.89178</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>21.86138</v>
+        <v>87.68178999999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>153.96579</v>
+        <v>625.3313900000001</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>157.1764</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>25.13296</v>
+        <v>251.00035</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1669.43174</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,185 +2164,210 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4746.09709</v>
+        <v>1991.10874</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>12914.55824</v>
+        <v>3469.36036</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>16309.64243</v>
+        <v>5900.64928</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1279.56231</v>
+        <v>1416.77233</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1787.36086</v>
+        <v>2024.85371</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6098.44855</v>
+        <v>6134.347</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1859.60665</v>
+        <v>15101.33614</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3366.35468</v>
+        <v>3146.20531</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5174.67015</v>
+        <v>7205.50742</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>12163.9435</v>
+        <v>45789.23865</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>14659.372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>65440.94177</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>29427.8</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>38656.26360000001</v>
+        <v>70940.52636</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>36675.71988</v>
+        <v>81550.64570000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>57852.81447999999</v>
+        <v>158102.64808</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>24410.54339</v>
+        <v>49340.45022999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>109551.24685</v>
+        <v>147006.94027</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>47707.63745</v>
+        <v>110526.6413</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>61892.74098</v>
+        <v>288590.3003799999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>82024.29828</v>
+        <v>211583.48848</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>78123.75163</v>
+        <v>282858.84437</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>799703.1308100001</v>
+        <v>1572133.53306</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>196978.0271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>643548.7651000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1181245.305</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>241.98832</v>
+        <v>70.05507999999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>46.12153</v>
+        <v>7.34964</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>536.93423</v>
+        <v>105.85826</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>263.06392</v>
+        <v>198.34472</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>200.80011</v>
+        <v>151.88104</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1220.36663</v>
+        <v>1242.88543</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>138.69488</v>
+        <v>3.98458</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>171.91979</v>
+        <v>99.91441999999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>108.28269</v>
+        <v>59.82497</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>100.64332</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>20.26866</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1840.25433</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>582.971</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1385.56457</v>
+        <v>2402.7923</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2740.48539</v>
+        <v>1938.80747</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1572.43452</v>
+        <v>27081.91109</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2048.25035</v>
+        <v>1886.79865</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2357.49176</v>
+        <v>2841.34282</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>950.54575</v>
+        <v>1994.59165</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>822.2922799999999</v>
+        <v>1994.76129</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2159.00978</v>
+        <v>3210.909</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1039.38542</v>
+        <v>1474.29643</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1157.70054</v>
+        <v>2370.40194</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1408.42793</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1436.70782</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4620.124</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1.05201</v>
+        <v>0.45201</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>171.16173</v>
+        <v>20.85593</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>579.0145299999999</v>
+        <v>574.43719</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.495</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0</v>
@@ -2306,73 +2382,83 @@
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>10395.30188</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>364.646</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>36304.32764</v>
+        <v>62711.99105999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>31099.92619</v>
+        <v>77164.11521</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>53827.20455</v>
+        <v>106711.97073</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>21435.34717</v>
+        <v>45984.67729</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>104485.90073</v>
+        <v>142103.22374</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>44737.90655000001</v>
+        <v>106594.49978</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>60033.40828999999</v>
+        <v>265497.9425</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>78816.94527</v>
+        <v>204855.37687</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>73133.28784</v>
+        <v>275554.99584</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>797338.25407</v>
+        <v>1427636.76334</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>191518.92245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>584676.79567</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1168820.453</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>58.93416000000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1.28054</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>117.94027</v>
+        <v>11.28467</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>131.32184</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>135.25532</v>
+        <v>471.3656</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>151.24475</v>
+        <v>29.27717</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>119.7837</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
@@ -2384,13 +2470,18 @@
         <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>488.87221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1255.12383</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>665.44891</v>
+        <v>5696.75376</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2786.85422</v>
+        <v>2439.92137</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1798.30091</v>
+        <v>24191.62333</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>361.39838</v>
+        <v>1249.77364</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1792.7844</v>
+        <v>864.68988</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>647.07877</v>
+        <v>665.3872700000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>778.56183</v>
+        <v>21093.61201</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>876.42344</v>
+        <v>3417.28819</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3839.30818</v>
+        <v>5766.23963</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1106.53288</v>
+        <v>142025.72446</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3541.53585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>43944.58157</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6857.111</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>15950.27298</v>
+        <v>28325.69634</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>20158.51782</v>
+        <v>50082.4986</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>21889.31987</v>
+        <v>53152.18831000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>20465.19807</v>
+        <v>30177.71035</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>38364.26322</v>
+        <v>46616.23462999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>33534.29327</v>
+        <v>57390.91093000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>31595.4336</v>
+        <v>70917.00704000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>37927.74438</v>
+        <v>78334.31310999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>42525.48454</v>
+        <v>108823.76004</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>110983.93259</v>
+        <v>401248.62855</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>104439.05167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>207331.58272</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>170280.757</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>14263.86254</v>
+        <v>22676.42704</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>17276.22443</v>
+        <v>43772.8651</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>19775.02584</v>
+        <v>40583.27149</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>19091.53691</v>
+        <v>23180.46569</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>34812.44417</v>
+        <v>35808.34225</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>31108.78884</v>
+        <v>56112.75563</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>28254.6053</v>
+        <v>62847.22166</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>30528.24436</v>
+        <v>67836.89545</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>37115.31455</v>
+        <v>99953.63297999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>93302.22897</v>
+        <v>241159.95875</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>100417.25817</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>186813.04513</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>144602.353</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1686.41044</v>
+        <v>5649.2693</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2882.29339</v>
+        <v>6309.6335</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2114.29403</v>
+        <v>12568.91682</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1373.66116</v>
+        <v>6997.24466</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3551.81905</v>
+        <v>10807.89238</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2425.50443</v>
+        <v>1278.1553</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3340.8283</v>
+        <v>8069.78538</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7399.50002</v>
+        <v>10497.41766</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>5410.16999</v>
+        <v>8870.127060000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>17681.70362</v>
+        <v>160088.6698</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4021.7935</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>20518.53759</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>25678.404</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>38723.68247</v>
+        <v>232.5212899999993</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>10441.55617</v>
+        <v>-9400.199440000002</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>16097.93549</v>
+        <v>-58387.7193</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>17270.02067</v>
+        <v>33572.62268</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-45913.36229999999</v>
+        <v>-78687.27317999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-11856.55214</v>
+        <v>-67307.14156</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-25526.69194</v>
+        <v>-152494.29839</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-16939.94552</v>
+        <v>-61155.53376000002</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>25336.52012999999</v>
+        <v>-3326.062189999998</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-126738.78812</v>
+        <v>-295173.22148</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>155524.86883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>72991.81954000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>125978.824</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>10446.31222</v>
+        <v>75656.38317</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>17366.07861</v>
+        <v>36544.43145</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>19999.55029</v>
+        <v>50058.95645000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>9933.408739999999</v>
+        <v>21223.40155</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>27156.70552</v>
+        <v>22837.13243</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>24925.11114999999</v>
+        <v>29588.65954</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>23774.41977</v>
+        <v>55342.66168</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8761.421289999998</v>
+        <v>26693.45439</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14111.71421</v>
+        <v>36768.33298000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>142436.65709</v>
+        <v>181124.56283</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>33475.13729999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>186263.05825</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>151115.199</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>32.14061</v>
+        <v>73.31654</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>440.07523</v>
+        <v>286.69928</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>7349.47111</v>
+        <v>7436.50295</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>74.85894999999999</v>
+        <v>137.30633</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>368.08825</v>
+        <v>405.79251</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1490.50089</v>
+        <v>1569.83196</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>112.83511</v>
+        <v>101.74851</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>791.55839</v>
+        <v>1379.88873</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>37.49521</v>
+        <v>400.3233500000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>17750.27244</v>
+        <v>63065.01265</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>167.86376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>20630.67678</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1535.769</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>10414.17161</v>
+        <v>75583.06663</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>16926.00338</v>
+        <v>36257.73217</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>12650.07918</v>
+        <v>42622.4535</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>9858.549789999999</v>
+        <v>21086.09522</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>26788.61727</v>
+        <v>22431.33992</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>23434.61026</v>
+        <v>28018.82758</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>23661.58466</v>
+        <v>55240.91317</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>7969.862899999999</v>
+        <v>25313.56566</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>14074.219</v>
+        <v>36368.00962999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>124686.38465</v>
+        <v>118059.55018</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>33307.27354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>165632.38147</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>149579.43</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>9244.218040000002</v>
+        <v>17847.5488</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>16625.15876</v>
+        <v>29418.83476</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>56445.05578</v>
+        <v>68331.93877000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>30776.31943</v>
+        <v>15606.21226</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>22391.13316</v>
+        <v>18095.90501</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>21846.11317</v>
+        <v>28314.22359</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8472.44728</v>
+        <v>11985.16605</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>28412.26354</v>
+        <v>90249.92092</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>12175.51241</v>
+        <v>18695.69357</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>229834.12697</v>
+        <v>290823.36119</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>44363.0091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>163193.36382</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>98700.552</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>668.0816799999999</v>
+        <v>5698.50056</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1520.01979</v>
+        <v>6181.833030000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>411.52145</v>
+        <v>791.3255300000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2090.49354</v>
+        <v>5381.89046</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4674.9031</v>
+        <v>8990.73907</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4291.33734</v>
+        <v>6560.017640000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1101.23983</v>
+        <v>1575.78895</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>851.59115</v>
+        <v>3257.2775</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2223.32673</v>
+        <v>1419.4899</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1666.72811</v>
+        <v>5457.96627</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1455.25763</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2164.09658</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6204.925</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>86.74666999999999</v>
+        <v>1523.2505</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>791.7286499999999</v>
+        <v>1229.315</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>424.81537</v>
+        <v>1050.2824</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>382.65541</v>
+        <v>2828.07324</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1575.98435</v>
+        <v>1687.59804</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1551.56857</v>
+        <v>1708.7936</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>910.5410899999999</v>
+        <v>856.7270599999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>243.98617</v>
+        <v>1843.56334</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>991.6194800000001</v>
+        <v>1712.32271</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>882.25004</v>
+        <v>29704.56882</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1322.09425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>13421.31801</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>21676.84</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8489.38969</v>
+        <v>10625.79774</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>14313.41032</v>
+        <v>22007.68673</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>55608.71896000001</v>
+        <v>66490.33084</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>28303.17048</v>
+        <v>7396.248560000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>16140.24571</v>
+        <v>7417.5679</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>16003.20726</v>
+        <v>20045.41235</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6460.66636</v>
+        <v>9552.650039999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>27316.68622</v>
+        <v>85149.08008</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8960.566199999999</v>
+        <v>15563.88096</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>227285.14882</v>
+        <v>255660.8261</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>41585.65722</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>147607.94923</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>70818.787</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>39925.77665000001</v>
+        <v>58041.35566</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>11182.47602</v>
+        <v>-2274.60275</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-20347.57</v>
+        <v>-76660.70161999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-3572.890019999999</v>
+        <v>39189.81197</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-41147.78994</v>
+        <v>-73946.04575999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-8777.55416</v>
+        <v>-66032.70561</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-10224.71945</v>
+        <v>-109136.80276</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-36590.78777</v>
+        <v>-124712.00029</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>27272.72193</v>
+        <v>14746.57722000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-214136.258</v>
+        <v>-404872.01984</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>144636.99703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>96061.51396999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>178393.471</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>8962.537980000001</v>
+        <v>9728.07309</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6424.178739999999</v>
+        <v>9214.126970000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7029.787449999999</v>
+        <v>7701.818699999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5743.57087</v>
+        <v>8044.71723</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6349.472200000001</v>
+        <v>6777.50183</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6166.518139999999</v>
+        <v>6692.90025</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6996.54781</v>
+        <v>9158.605599999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>7196.662439999999</v>
+        <v>8714.149870000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>10906.20293</v>
+        <v>16429.32189</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>21234.02647</v>
+        <v>18740.92059</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>23697.02455000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>27579.6026</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>55986.76</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>30963.23867</v>
+        <v>48313.28257</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4758.29728</v>
+        <v>-11488.72972</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-27377.35745</v>
+        <v>-84362.52032</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-9316.46089</v>
+        <v>31145.09474</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-47497.26214</v>
+        <v>-80723.54759</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-14944.0723</v>
+        <v>-72725.60586</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-17221.26726</v>
+        <v>-118295.40836</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-43787.45021</v>
+        <v>-133426.15016</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>16366.519</v>
+        <v>-1682.744669999994</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-235370.28447</v>
+        <v>-423612.94043</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>120939.97248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>68481.91136999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>122406.711</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>122</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>